--- a/historical/ATGL.xlsx
+++ b/historical/ATGL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -426,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O139"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6965,6 +6965,53 @@
         <v>0.4788000000000001</v>
       </c>
     </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140">
+        <v>3620.05</v>
+      </c>
+      <c r="E140">
+        <v>3657.95</v>
+      </c>
+      <c r="F140">
+        <v>3725</v>
+      </c>
+      <c r="G140">
+        <v>3646.05</v>
+      </c>
+      <c r="H140">
+        <v>3691</v>
+      </c>
+      <c r="I140">
+        <v>3674.95</v>
+      </c>
+      <c r="J140">
+        <v>3691.35</v>
+      </c>
+      <c r="K140">
+        <v>398494</v>
+      </c>
+      <c r="L140">
+        <v>147097964805000</v>
+      </c>
+      <c r="M140">
+        <v>28527</v>
+      </c>
+      <c r="N140">
+        <v>172268</v>
+      </c>
+      <c r="O140">
+        <v>0.4323</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
